--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FixedRateBonds.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FixedRateBonds.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15240" windowHeight="19695"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15240" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Object Creation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondType">'Object Creation'!$D$3</definedName>
     <definedName name="FileName">'Object Creation'!$D$5</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>General Settings</t>
   </si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Date Generation</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
     <numFmt numFmtId="170" formatCode="General_)"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -787,22 +787,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1099,7 +1083,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
@@ -1111,13 +1095,13 @@
     <col min="8" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="61" t="s">
         <v>0</v>
@@ -1126,14 +1110,14 @@
       <c r="D2" s="62"/>
       <c r="E2" s="63"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
@@ -1142,7 +1126,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
@@ -1153,7 +1137,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
@@ -1164,7 +1148,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
@@ -1175,19 +1159,18 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\010_BondDataBase\</v>
+      <c r="D8" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
@@ -1198,7 +1181,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1225,7 +1208,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="47" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="47"/>
@@ -1257,8 +1240,8 @@
     <col min="31" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" s="38" customFormat="1" ht="12" thickBot="1"/>
-    <row r="2" spans="2:30" s="38" customFormat="1">
+    <row r="1" spans="2:30" s="38" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="39"/>
       <c r="C2" s="40"/>
       <c r="D2" s="41"/>
@@ -1289,7 +1272,7 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="42"/>
     </row>
-    <row r="3" spans="2:30" s="38" customFormat="1">
+    <row r="3" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="16" t="s">
         <v>10</v>
@@ -1324,7 +1307,7 @@
       <c r="AC3" s="44"/>
       <c r="AD3" s="45"/>
     </row>
-    <row r="4" spans="2:30" s="38" customFormat="1">
+    <row r="4" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="43"/>
       <c r="C4" s="16" t="s">
         <v>36</v>
@@ -1359,7 +1342,7 @@
       <c r="AC4" s="44"/>
       <c r="AD4" s="45"/>
     </row>
-    <row r="5" spans="2:30" s="38" customFormat="1">
+    <row r="5" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="43"/>
       <c r="C5" s="22" t="s">
         <v>54</v>
@@ -1395,7 +1378,7 @@
       <c r="AC5" s="44"/>
       <c r="AD5" s="45"/>
     </row>
-    <row r="6" spans="2:30" s="38" customFormat="1">
+    <row r="6" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="43"/>
       <c r="C6" s="21" t="s">
         <v>37</v>
@@ -1434,7 +1417,7 @@
       <c r="AC6" s="44"/>
       <c r="AD6" s="45"/>
     </row>
-    <row r="7" spans="2:30" s="38" customFormat="1">
+    <row r="7" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -1465,7 +1448,7 @@
       <c r="AC7" s="44"/>
       <c r="AD7" s="45"/>
     </row>
-    <row r="8" spans="2:30" s="38" customFormat="1">
+    <row r="8" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="43"/>
       <c r="C8" s="44"/>
       <c r="D8" s="21" t="s">
@@ -1548,7 +1531,7 @@
       </c>
       <c r="AD8" s="45"/>
     </row>
-    <row r="9" spans="2:30" s="38" customFormat="1">
+    <row r="9" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="43"/>
       <c r="C9" s="49" t="s">
         <v>20</v>
@@ -1637,7 +1620,7 @@
       <c r="AC9" s="24"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="2:30" s="38" customFormat="1">
+    <row r="10" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="43"/>
       <c r="C10" s="49" t="s">
         <v>22</v>
@@ -1726,7 +1709,7 @@
       <c r="AC10" s="24"/>
       <c r="AD10" s="7"/>
     </row>
-    <row r="11" spans="2:30" s="38" customFormat="1">
+    <row r="11" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="43"/>
       <c r="C11" s="49" t="s">
         <v>23</v>
@@ -1815,7 +1798,7 @@
       <c r="AC11" s="24"/>
       <c r="AD11" s="7"/>
     </row>
-    <row r="12" spans="2:30" s="38" customFormat="1">
+    <row r="12" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="43"/>
       <c r="C12" s="49" t="s">
         <v>28</v>
@@ -1906,7 +1889,7 @@
       <c r="AC12" s="24"/>
       <c r="AD12" s="7"/>
     </row>
-    <row r="13" spans="2:30" s="38" customFormat="1">
+    <row r="13" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="35"/>
       <c r="C13" s="49" t="s">
         <v>33</v>
@@ -1999,7 +1982,7 @@
       </c>
       <c r="AD13" s="7"/>
     </row>
-    <row r="14" spans="2:30" s="38" customFormat="1">
+    <row r="14" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="43"/>
       <c r="C14" s="44"/>
       <c r="D14" s="26"/>
@@ -2030,7 +2013,7 @@
       <c r="AC14" s="34"/>
       <c r="AD14" s="7"/>
     </row>
-    <row r="15" spans="2:30" s="38" customFormat="1" ht="12" thickBot="1">
+    <row r="15" spans="2:30" s="38" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -2061,8 +2044,8 @@
       <c r="AC15" s="14"/>
       <c r="AD15" s="15"/>
     </row>
-    <row r="16" spans="2:30" s="38" customFormat="1"/>
-    <row r="17" spans="14:14">
+    <row r="16" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N17" s="48"/>
     </row>
   </sheetData>

--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FixedRateBonds.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FixedRateBonds.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>General Settings</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>Date Generation</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1162,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>65</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\010_BondDataBase\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1383,13 +1381,13 @@
       <c r="C6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="17">
-        <f>IF(Serialize,_xll.ohObjectSave(F9:J13,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>25</v>
-      </c>
-      <c r="E6" s="23" t="str">
-        <f>_xll.ohRangeRetrieveError(D6)</f>
-        <v/>
+      <c r="D6" s="17" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F9:J13,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="23" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
